--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>001186</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>富国文体健康股票A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>270008</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>广发核心精选混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>90.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>000747</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>92.46</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008704</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008705</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>009714</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>华安聚优精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>156.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>009951</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>广发稳健回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>104.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>100022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>富国天瑞强势地区精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>40.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>富国文体健康股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001186</t>
+          <t>008371</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国文体健康股票A</t>
+          <t>华安汇智精选两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>001166</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>建信环保产业股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>005840</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>富国产业驱动混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001827</t>
+          <t>009952</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国研究优选沪港深灵活配置混合</t>
+          <t>广发稳健回报混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>005521</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>华安红利精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>008290</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>华安现代生活混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005521</t>
+          <t>001445</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安红利精选混合</t>
+          <t>华安国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000065</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国富焦点驱动灵活配置混合</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>450004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>国富深化价值混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005840</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国产业驱动混合</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>81.11</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009951</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发稳健回报混合A</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>54.46</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009952</t>
+          <t>000065</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发稳健回报混合C</t>
+          <t>国富焦点驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>54.46</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>34.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>001827</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>富国研究优选沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>68.39</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>450004</t>
+          <t>010461</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国富深化价值混合</t>
+          <t>民生加银康利混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80.12</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010461</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>民生加银康利混合</t>
+          <t>天治趋势精选混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007163</t>
+          <t>161727</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浦银安盛环保新能源混合A</t>
+          <t>招商增荣灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007164</t>
+          <t>007163</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>浦银安盛环保新能源混合C</t>
+          <t>浦银安盛环保新能源混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>86.04</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001166</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建信环保产业股票</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001445</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安国企改革主题灵活配置混合</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100022</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富国天瑞强势地区精选混合</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>79.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1892,15 +2392,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>161727</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>58.88</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>007164</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>浦银安盛环保新能源混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2088,15 +2658,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>70.77</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008290</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华安现代生活混合</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>77.56</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008371</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华安汇智精选两年持有期混合</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>76.15</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>10</v>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2162,25 +2762,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009714</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华安聚优精选混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2190,26 +2794,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2770,7 +2771,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -2802,7 +2802,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -2818,6 +2817,670 @@
       </c>
       <c r="H43" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>132.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3486,4 +3487,1274 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4757,4 +4758,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4766,7 +4767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,17 +4778,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4797,14 +4818,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.97</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4813,14 +4856,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.41</v>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4829,14 +4894,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.44</v>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4845,13 +4932,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5355,7 +5356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5366,17 +5367,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5386,14 +5407,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.39</v>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5402,14 +5445,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.97</v>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5418,14 +5483,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.41</v>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5434,14 +5521,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.44</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5450,13 +5559,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5944,7 +5945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5955,17 +5956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5975,14 +5996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.57</v>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5991,14 +6034,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.39</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6007,14 +6072,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.97</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6023,14 +6110,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.41</v>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6039,14 +6148,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>42</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.44</v>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6055,13 +6186,1247 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519768</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>4.57</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>1.57</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>4.39</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>12.97</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>9.41</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>18.44</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.68</v>
       </c>
     </row>
@@ -600,6 +617,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,594 +3039,6 @@
       </c>
       <c r="H35" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010742</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2374</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2282</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1514</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1492</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519770</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银优择回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008705</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519771</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银优择回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010743</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001654</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2592,36 +3103,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009951</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳健回报混合A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.56</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>55.45</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8226</t>
+          <t>0.3541</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2630,36 +3141,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>010742</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>南方宁悦一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>21.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4484</t>
+          <t>0.2374</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2678,26 +3189,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.79</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.2282</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2706,36 +3217,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009952</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发稳健回报混合C</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55.45</t>
+          <t>66.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2240</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2754,26 +3265,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>46.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1391</t>
+          <t>0.1492</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2782,36 +3293,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>519770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>交银优择回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.1089</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2820,36 +3331,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>66.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1059</t>
+          <t>0.0852</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2868,22 +3379,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2906,26 +3417,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>46.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2934,36 +3445,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>162717</t>
+          <t>519771</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发再融资主题灵活配置混合</t>
+          <t>交银优择回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>42.99</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2972,36 +3483,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>010743</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>南方宁悦一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -3010,36 +3521,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>国联安添鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>77.94</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3048,36 +3559,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>001654</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>国联安添鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>77.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3086,36 +3597,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合C</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3124,6 +3635,594 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4393,7 +5492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5057,7 +6156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6695,7 +7794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
+++ b/数据整理/stocks/A股/上证主板/600323-瀚蓝环境.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>4.05</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.57</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>1.57</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>4.39</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>12.97</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>9.41</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>18.44</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +3385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3039,594 +4726,6 @@
       </c>
       <c r="H35" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010742</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2374</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2282</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1514</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1492</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519770</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银优择回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008705</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519771</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银优择回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010743</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001654</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3691,36 +4790,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009951</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳健回报混合A</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.56</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>55.45</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8226</t>
+          <t>0.3541</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3729,36 +4828,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>010742</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>南方宁悦一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>21.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4484</t>
+          <t>0.2374</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3777,26 +4876,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.79</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.2282</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3805,36 +4904,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009952</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发稳健回报混合C</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55.45</t>
+          <t>66.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2240</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3853,26 +4952,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>46.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1391</t>
+          <t>0.1492</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3881,36 +4980,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>519770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>交银优择回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.1089</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3919,36 +5018,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>66.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1059</t>
+          <t>0.0852</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3967,22 +5066,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.0825</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4005,26 +5104,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>46.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4033,36 +5132,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>162717</t>
+          <t>519771</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发再融资主题灵活配置混合</t>
+          <t>交银优择回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>42.99</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4071,36 +5170,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>010743</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>南方宁悦一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.59</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -4109,36 +5208,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>国联安添鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>77.94</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -4147,36 +5246,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>001654</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>国联安添鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>77.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -4185,36 +5284,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合C</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4223,6 +5322,594 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5492,7 +7179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6156,7 +7843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7792,744 +9479,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>137.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.6014</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2913</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6153</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5961</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5961</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5870</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008704</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5050</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>270008</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发核心精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4217</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008705</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发高股息优享混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1059</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004119</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0749</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>